--- a/EDI_Project_Documentation/Vendor_Jobs  & Jobs Backup location.xlsx
+++ b/EDI_Project_Documentation/Vendor_Jobs  & Jobs Backup location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G2TECH\Desktop\FInal-SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAdmin\Desktop\FInal-SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADDAF2-94D6-4D70-B250-8529AA6D8DB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADA262-8AED-43BB-8746-3331340CF21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>Vendor</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>O:\Technology Growth Specialist\EDI_Backups\Maps</t>
+  </si>
+  <si>
+    <t>Reliant Energy</t>
+  </si>
+  <si>
+    <t>Eversource</t>
   </si>
 </sst>
 </file>
@@ -321,13 +327,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -366,7 +371,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -379,8 +383,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
@@ -687,75 +690,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>44832</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>45095</v>
       </c>
-      <c r="G2" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -772,31 +775,31 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>45095</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="E3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -813,31 +816,31 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>45095</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>45095</v>
       </c>
-      <c r="G4" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -854,31 +857,31 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>45095</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>45095</v>
       </c>
-      <c r="G5" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -895,29 +898,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="C6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -934,31 +937,31 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>45095</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>45095</v>
       </c>
-      <c r="G7" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -975,31 +978,31 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>45095</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>45095</v>
       </c>
-      <c r="G8" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1016,31 +1019,31 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>45095</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>45095</v>
       </c>
-      <c r="G9" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1057,113 +1060,113 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>45095</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>44848</v>
       </c>
-      <c r="G10" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>45095</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="E11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>45095</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="E12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1180,29 +1183,29 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -1219,31 +1222,31 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>45095</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="E14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1259,44 +1262,44 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+    <row r="15" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1304,20 +1307,20 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="G17" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1325,20 +1328,20 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1346,20 +1349,20 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1367,20 +1370,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1388,41 +1391,41 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="G21" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="G22" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1430,36 +1433,78 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="G23" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="10">
-        <v>45915</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="G24" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9">
+        <v>45924</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>66</v>
       </c>
     </row>
